--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1420.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1420.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.684286053072792</v>
+        <v>1.075935482978821</v>
       </c>
       <c r="B1">
-        <v>2.070582811998473</v>
+        <v>0.9521679878234863</v>
       </c>
       <c r="C1">
-        <v>2.213349056072872</v>
+        <v>6.583098411560059</v>
       </c>
       <c r="D1">
-        <v>2.623418471910598</v>
+        <v>2.019391775131226</v>
       </c>
       <c r="E1">
-        <v>3.16822240095928</v>
+        <v>1.122024297714233</v>
       </c>
     </row>
   </sheetData>
